--- a/docs/states.xlsx
+++ b/docs/states.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaserController\LaserController\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44FEA43-B222-4282-B4B8-D5BA11571137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D1F489-CFB8-43A7-A8D1-E8F852D8D3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{F44C944F-5D3F-46E8-81B6-9F3D729A45E0}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="17040" activeTab="1" xr2:uid="{F44C944F-5D3F-46E8-81B6-9F3D729A45E0}"/>
   </bookViews>
   <sheets>
     <sheet name="状态切换表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
   <si>
     <t>Idle</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鼠标按下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鼠标抬起，选框小于阈值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,19 +102,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鼠标按下的位置不在选框控制柄上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼠标按下选框控制柄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>endSelectedEditing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>鼠标抬起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mousePressEvent
+鼠标按下的位置不在选框控制柄上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mousePressEvent
+鼠标按下选框控制柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mousePressEvent
+鼠标按下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,7 +492,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="90" customHeight="1"/>
@@ -538,7 +541,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -555,13 +558,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -573,6 +576,9 @@
     <row r="6" spans="1:6" ht="90" customHeight="1">
       <c r="A6" t="s">
         <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -587,7 +593,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.625" defaultRowHeight="60" customHeight="1"/>
@@ -614,10 +620,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" customHeight="1">
@@ -628,7 +634,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -642,18 +648,18 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -670,7 +676,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -678,7 +684,7 @@
     </row>
     <row r="7" spans="1:5" ht="60" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -690,7 +696,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
